--- a/frontend-cemos/public/assets/content/economia/1-economia-br/script/fc3.xlsx
+++ b/frontend-cemos/public/assets/content/economia/1-economia-br/script/fc3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,588 +468,1008 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Qual evento em abril de 1991 levou à mobilização de tropas no norte do Iraque?</t>
+          <t>Qual a principal diferença conceitual entre crescimento econômico e desenvolvimento econômico?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A campanha de vingança das tropas de Saddam Hussein contra os curdos, após uma tentativa de sublevação.</t>
+          <t>Crescimento é a ampliação quantitativa da produção (PIB); desenvolvimento envolve a qualidade de vida e a natureza desse crescimento.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pág 30</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Qual o nome da operação militar liderada pelos EUA/GB/França/Itália/Holanda no norte do Iraque em 1991?</t>
+          <t>Por que o Brasil, apesar de ter um PIB total elevado, não é considerado um país desenvolvido?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operação Fornecer Ajuda.</t>
+          <t>Porque grande parte da população possui condições de vida insuficientes, diferenciando o volume de produção da qualidade de vida social.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pág 30</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Que preocupação a Resolução 688 manifestava em relação à repressão no Iraque?</t>
+          <t>O que o conceito de desenvolvimento econômico busca medir fundamentalmente?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Repressão da população civil, que levou a um fluxo maciço de refugiados e ameaçava a paz e a segurança internacionais.</t>
+          <t>As condições de vida ou a qualidade de vida dos residentes de um país.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pág 30</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Qual país ameaçou vetar a Resolução 688 por preocupação com interferência em questões internas de Estados soberanos?</t>
+          <t>O que é o Produto Per Capita e como ele é calculado?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>China.</t>
+          <t>É uma média da produção por habitante, calculada dividindo-se o PIB total pela população do país.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pág 31</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Qual é a principal característica que distingue a Resolução 678 (1990) de outras resoluções como a 688 (1991)?</t>
+          <t>Qual é a principal limitação do PIB per capita como indicador de bem-estar?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A Resolução 678 autorizava inequivocamente o uso da força, enquanto a 688 não o fazia expressamente.</t>
+          <t>Por ser uma média, ele esconde a desigualdade na distribuição de renda entre as pessoas.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pág 31</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Qual Resolução do Conselho de Segurança, adotada em setembro de 1998 sob o Capítulo VII, exigia o fim das ações repressivas no Kosovo?</t>
+          <t>Por que a Suíça é considerada mais desenvolvida que o Brasil, mesmo tendo um PIB total menor?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Resolução 1199.</t>
+          <t>Porque seu PIB per capita é muito superior, indicando que, em média, os suíços têm acesso a muito mais bens e serviços que os brasileiros.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pág 31</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Quando a OTAN deu início à campanha de ataques aéreos contra alvos na Sérvia e Montenegro sem uma nova resolução do Conselho de Segurança?</t>
+          <t>O que significa dizer que um país tem um PIB per capita alto mas é "mal desenvolvido"?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>24 de março de 1999.</t>
+          <t>Significa que a renda é muito concentrada, de modo que a maioria da população tem condições de vida inferiores à média sugerida pelo PIB.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pág 32</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Qual foi o principal argumento jurídico acenado pelas potências interventoras para justificar a Guerra do Kosovo (1999)?</t>
+          <t>Qual foi a característica do crescimento do PIB per capita brasileiro na "década perdida" (anos 1980)?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A autorização implícita, baseada no fato de o Conselho de Segurança ter identificado uma ameaça e exigido ações prévias.</t>
+          <t>Foi marcado por forte instabilidade e variações negativas consecutivas, fruto da crise da dívida e alta inflação.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pág 32</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Qual foi a principal justificativa legal oferecida pela Grã-Bretanha e pelos Estados Unidos para a invasão do Iraque em 2003, referente às resoluções anteriores?</t>
+          <t>O que são Indicadores Sociais e qual sua função na análise econômica?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A reativação da autorização de força da Resolução 678, suspensa pelo cessar-fogo, devido a uma "violação material" do Iraque.</t>
+          <t>São métricas (como saúde e educação) que informam diretamente sobre a qualidade de vida, complementando a análise puramente monetária.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pág 32</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Qual foi o principal contra-argumento legal à teoria da reativação da Resolução 678 para a Guerra do Iraque de 2003?</t>
+          <t>O que os dados regionais de analfabetismo no Brasil (Tabela 3.1) evidenciam sobre o desenvolvimento?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A Resolução 687 (cessar-fogo) de 1991 cancelou, e não apenas suspendeu, a autorização anterior.</t>
+          <t>Evidenciam grandes disparidades regionais, com o Nordeste apresentando taxas significativamente maiores que o Sul e Sudeste.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pág 33</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Por que se argumentou que a Resolução 1441 não autorizava automaticamente o uso da força, mesmo após violação material?</t>
+          <t>Como a renda familiar influencia o acesso ao saneamento básico no Brasil (Tabela 3.3)?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Porque a resolução não especificava as consequências legais e membros do Conselho confirmaram publicamente a ausência de "automaticidade".</t>
+          <t>Existe forte correlação: famílias de baixa renda têm muito menos acesso a esgoto e água tratada do que famílias de alta renda.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pág 33</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Que termo o Conselho de Segurança alcançou com a Resolução 1441 ao equilibrar argumentos conflitantes e proteger o sistema jurídico internacional?</t>
+          <t>Qual é a relação observada entre a faixa de renda e a taxa de analfabetismo no Brasil?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Des-legalizar a situação.</t>
+          <t>A taxa de analfabetismo é drasticamente maior nas faixas de renda mais baixa (até 1/4 do salário-mínimo) e quase nula nas faixas mais altas.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pág 33</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Qual abordagem interpretativa os Estados Unidos tendem a favorecer para documentos internacionais em oposição à Convenção de Viena?</t>
+          <t>Como se compara a taxa de mortalidade infantil do Brasil com a de países desenvolvidos (Tabela 3.4)?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Uma abordagem finalista, conferindo mais peso ao "objetivo e finalidade" e menos ao texto efetivo.</t>
+          <t>A taxa brasileira (aprox. 12,2) é intermediária, mas ainda muito superior à de países desenvolvidos como Japão (1,7) ou Coreia do Sul (2,3).</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pág 34</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>O que o Artigo 31 (1) da Convenção de Viena prioriza na interpretação de tratados?</t>
+          <t>O que é o Índice de Desenvolvimento Humano (IDH)?</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>O significado comum a ser conferido a seus termos em seu contexto e à luz de seu objetivo e finalidade.</t>
+          <t>É um índice criado pela ONU que agrega renda per capita, expectativa de vida (saúde) e indicadores de escolaridade (educação).</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pág 34</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Na crise do Kosovo, qual sugestão Madeleine Albright deu ao ministro britânico Robin Cook, que estava preocupado com problemas legais sobre o uso da força?</t>
+          <t>Quais são os três pilares que compõem o cálculo do IDH?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"Arranje outros advogados".</t>
+          <t>Renda (PIB per capita PPP), Longevidade (esperança de vida) e Educação (anos de estudo e expectativa de vida escolar).</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pág 34</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Qual jurista alemão defende uma abordagem interpretativa mais restritiva e estritamente voltada para o significado comum das palavras nas resoluções do Conselho de Segurança?</t>
+          <t>Como é interpretada a escala do IDH?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Jochen Frowein.</t>
+          <t>Varia de 0 a 1; quanto mais próximo de 1, mais desenvolvido é o país.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pág 35</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Que princípio interpretativo a abordagem de Frowein impõe em relação ao uso da força militar?</t>
+          <t>Qual era a classificação do Brasil no ranking de IDH de 2021?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Uma presunção interpretativa contra a autorização do emprego da força militar.</t>
+          <t>O Brasil ocupava a 87ª posição (IDH 0,754), considerado um país de "alto" desenvolvimento humano, mas abaixo da OCDE.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pág 35</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Qual foi o efeito da tentativa de promover uma abordagem finalista (como a do Reino Unido/EUA) após a Guerra do Iraque?</t>
+          <t>O que é o IDHM e o que ele revela sobre o Brasil?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Levou a uma maior clareza na redação e maior objetividade na interpretação das resoluções subsequentes do Conselho de Segurança.</t>
+          <t>É o IDH aplicado aos municípios/estados; revela imensa desigualdade regional, com SP e DF próximos de países desenvolvidos e Norte/Nordeste com índices menores.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pág 35</t>
+          <t>Pág 9</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Qual foi a opinião expressa pelo secretário-geral Kofi Annan em setembro de 2004 sobre a legalidade da Guerra do Iraque?</t>
+          <t>O que é a Distribuição Funcional da Renda?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A Guerra do Iraque foi "ilegal".</t>
+          <t>É a divisão da renda nacional entre os fatores de produção, principalmente entre remuneração do trabalho (salários) e do capital (lucros/excedente).</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pág 36</t>
+          <t>Pág 11</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Qual escândalo envolvendo Saddam Hussein e um programa gerido pela ONU foi usado por congressistas republicanos para exigir a renúncia de Kofi Annan?</t>
+          <t>O que aconteceu com a participação da "remuneração dos empregados" na renda brasileira entre 2005 e 2015?</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>O escândalo “petróleo por alimentos”.</t>
+          <t>Houve um crescimento dessa participação, indicando um aumento da parcela da renda destinada aos trabalhadores nesse período.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pág 36</t>
+          <t>Pág 11</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Como o embaixador americano John Danforth demonstrou a intolerância do governo Bush com as divergências de Kofi Annan em novembro de 2004?</t>
+          <t>O que mostra a distribuição pessoal da renda no Brasil (Tabela 3.7) sobre os 1% mais ricos em 2021?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Eximiu-se deliberadamente de manifestar sua confiança na liderança do secretário-geral.</t>
+          <t>Mostra uma altíssima concentração, com apenas 1% da população apropriando-se de 12,4% de toda a renda gerada.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Pág 36</t>
+          <t>Pág 12</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Cap. 3 - Autorização implícita a ambiguidade intencional</t>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Qual é a principal dificuldade das pesquisas domiciliares (enquetes) ao medir a distribuição de renda?</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Elas tendem a subestimar a renda dos mais ricos, pois rendimentos de capital e aplicações financeiras frequentemente não são totalmente declarados.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Pág 13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Como o Brasil se posiciona no cenário mundial em termos de desigualdade de renda (Índice de Gini)?</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>O Brasil possui uma das piores distribuições de renda do mundo, comparável a países como África do Sul e Honduras.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Pág 13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>O que representa a Curva de Lorenz?</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Gráfico que relaciona a porcentagem acumulada da população com a porcentagem acumulada da renda; quanto mais longe da reta diagonal, maior a desigualdade.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Como o Índice de Gini é derivado da Curva de Lorenz?</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>É a relação entre a área formada pela Curva de Lorenz e a linha de perfeita igualdade; varia de 0 (igualdade total) a 1 (desigualdade total).</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Quais fatores históricos contribuem para a alta desigualdade no Brasil?</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A herança de 300 anos de escravidão e a concentração fundiária (latifúndios) desde o período colonial.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Qual foi a diferença na concentração de renda entre as décadas de 1970 e 1980/1990?</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Em 1970, a desigualdade aumentou com crescimento econômico (todos ganharam, ricos ganharam mais); nos anos 80/90, aumentou com estagnação (pobres perderam).</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>O que postulava a "Teoria do Bolo" durante o Milagre Econômico?</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A ideia de que era necessário primeiro fazer a economia crescer (aumentar o bolo) para depois distribuir a renda.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Pág 16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Qual foi o efeito do Plano Real e do Bolsa Família na distribuição de renda até 2015?</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Contribuíram para uma redução da desigualdade, com as classes mais baixas tendo ganhos de renda proporcionalmente maiores que as classes altas.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Pág 16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>O que é a "pobreza absoluta" em contraposição à pobreza relativa?</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>É um estado de carência definido por padrões mínimos de sobrevivência (ex: linha de pobreza monetária), independente da comparação com os outros.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Pág 17</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>O que é uma "linha de pobreza"?</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Um valor monetário mínimo estabelecido para considerar uma pessoa pobre, geralmente baseado no custo de uma cesta básica de consumo.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Pág 18</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Quais são os valores de referência internacionais para linhas de pobreza utilizados pelo Banco Mundial (PPC)?</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>US$ 1,90 (extrema pobreza), US$ 3,20 e US$ 5,50 por dia, ajustados pela Paridade de Poder de Compra.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Pág 18</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>O que é a Pobreza Multidimensional?</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>É uma medida que considera diversas privações simultâneas (saúde, educação, padrões de vida) e não apenas a falta de renda monetária.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Pág 19</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>O que significa "equidade" no contexto do desenvolvimento humano?</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Significa garantir igualdade de oportunidades para que todos possam participar e se beneficiar do crescimento econômico.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Pág 20</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>O que define o conceito de "desenvolvimento sustentável"?</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>É o desenvolvimento que atende às necessidades do presente sem comprometer a capacidade das gerações futuras de atenderem às suas próprias necessidades.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Pág 21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>O que são os ODS (Objetivos de Desenvolvimento Sustentável)?</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Um conjunto de 17 metas globais estabelecidas pela ONU na Agenda 2030 para promover desenvolvimento social, econômico e ambiental.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Pág 23</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Cap. 3 - Desenvolvimento e Distribuição de Renda</t>
         </is>
       </c>
     </row>
